--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -790,10 +790,10 @@
         <v>2.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>1.53</v>
@@ -1025,7 +1025,7 @@
         <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>1.44</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>1.1</v>
@@ -1311,16 +1311,16 @@
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
@@ -1329,7 +1329,7 @@
         <v>401</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1388,10 +1388,10 @@
         <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1400,16 +1400,16 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R8" t="n">
         <v>2.38</v>
@@ -1427,7 +1427,7 @@
         <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1998,10 +1998,10 @@
         <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>1.5</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2272,13 +2272,13 @@
         <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U15" t="n">
         <v>13</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W15" t="n">
         <v>23</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
@@ -2397,13 +2397,13 @@
         <v>11</v>
       </c>
       <c r="U16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V16" t="n">
         <v>8.5</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
         <v>10</v>
@@ -2436,7 +2436,7 @@
         <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI16" t="n">
         <v>41</v>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
@@ -2489,7 +2489,7 @@
         <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L17" t="n">
         <v>1.17</v>
@@ -2546,7 +2546,7 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -2555,7 +2555,7 @@
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>81</v>
@@ -2730,16 +2730,16 @@
         <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N19" t="n">
         <v>2.4</v>
@@ -2846,7 +2846,7 @@
         <v>1.67</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
         <v>5.75</v>
@@ -2858,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
         <v>2.35</v>
@@ -2870,16 +2870,16 @@
         <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
         <v>5.5</v>
@@ -2897,7 +2897,7 @@
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
         <v>7</v>
@@ -2915,7 +2915,7 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>26</v>
@@ -2974,10 +2974,10 @@
         <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>4.25</v>
+        <v>4.9</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N23" t="n">
         <v>2.07</v>
@@ -3238,25 +3238,25 @@
         <v>2.25</v>
       </c>
       <c r="R23" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.78</v>
       </c>
-      <c r="S23" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T23" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="V23" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W23" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y23" t="n">
         <v>29</v>
@@ -3265,34 +3265,34 @@
         <v>7.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE23" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AI23" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -3336,22 +3336,22 @@
         <v>3.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3693,41 +3693,95 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9</v>
+      </c>
+      <c r="W27" t="n">
+        <v>19</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3761,90 +3815,94 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>2.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9</v>
+      </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>3.25</v>
       </c>
       <c r="N28" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P28" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T28" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="U28" t="n">
+        <v>12</v>
+      </c>
+      <c r="V28" t="n">
+        <v>10</v>
+      </c>
+      <c r="W28" t="n">
+        <v>23</v>
+      </c>
+      <c r="X28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z28" t="n">
         <v>9</v>
       </c>
-      <c r="V28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>19</v>
-      </c>
-      <c r="X28" t="n">
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
         <v>15</v>
       </c>
-      <c r="Y28" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG28" t="n">
         <v>11</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>8.6</v>
       </c>
       <c r="AH28" t="n">
         <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -3879,41 +3937,95 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+        <v>1.91</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>12</v>
+      </c>
+      <c r="U29" t="n">
+        <v>19</v>
+      </c>
+      <c r="V29" t="n">
+        <v>13</v>
+      </c>
+      <c r="W29" t="n">
+        <v>41</v>
+      </c>
+      <c r="X29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3947,86 +4059,94 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>3.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11</v>
+      </c>
       <c r="L30" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+        <v>1.95</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
       <c r="R30" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
         <v>2.1</v>
       </c>
       <c r="T30" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="U30" t="n">
         <v>10</v>
       </c>
       <c r="V30" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="n">
         <v>26</v>
       </c>
-      <c r="AI30" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -4061,41 +4181,95 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+        <v>3.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>8</v>
+      </c>
+      <c r="U31" t="n">
+        <v>9</v>
+      </c>
+      <c r="V31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>15</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4128,36 +4302,96 @@
           <t>Vlasim</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>15</v>
+      </c>
+      <c r="X32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4191,41 +4425,95 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>12</v>
+      </c>
+      <c r="V33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>21</v>
+      </c>
+      <c r="X33" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4259,41 +4547,95 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="H34" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>7</v>
+      </c>
+      <c r="U34" t="n">
+        <v>7</v>
+      </c>
+      <c r="V34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>9</v>
+      </c>
+      <c r="X34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4327,19 +4669,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.3</v>
@@ -4351,13 +4693,13 @@
         <v>2.05</v>
       </c>
       <c r="O35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
         <v>1.8</v>
@@ -4375,7 +4717,7 @@
         <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X35" t="n">
         <v>19</v>
@@ -4384,10 +4726,10 @@
         <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB35" t="n">
         <v>15</v>
@@ -4399,7 +4741,7 @@
         <v>251</v>
       </c>
       <c r="AE35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF35" t="n">
         <v>15</v>
@@ -4408,10 +4750,10 @@
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -4452,46 +4794,46 @@
         <v>2.5</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S36" t="n">
         <v>2.05</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V36" t="n">
         <v>10</v>
@@ -4500,43 +4842,43 @@
         <v>23</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>29</v>
       </c>
       <c r="Z36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE36" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB36" t="n">
+      <c r="AF36" t="n">
         <v>15</v>
       </c>
-      <c r="AC36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>13</v>
-      </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -4577,13 +4919,13 @@
         <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J37" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L37" t="n">
         <v>1.33</v>
@@ -4604,16 +4946,16 @@
         <v>2.63</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
       </c>
       <c r="U37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V37" t="n">
         <v>9</v>
@@ -4640,7 +4982,7 @@
         <v>51</v>
       </c>
       <c r="AD37" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE37" t="n">
         <v>10</v>
@@ -4649,7 +4991,7 @@
         <v>17</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
         <v>41</v>
@@ -4692,36 +5034,84 @@
           <t>Johor DT</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.19</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.75</v>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="T38" t="n">
+        <v>35</v>
+      </c>
+      <c r="U38" t="n">
+        <v>70</v>
+      </c>
+      <c r="V38" t="n">
+        <v>24</v>
+      </c>
+      <c r="W38" t="n">
+        <v>101</v>
+      </c>
+      <c r="X38" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4755,43 +5145,43 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O39" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T39" t="n">
         <v>11</v>
@@ -4806,37 +5196,37 @@
         <v>26</v>
       </c>
       <c r="X39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y39" t="n">
         <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB39" t="n">
         <v>11</v>
       </c>
       <c r="AC39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD39" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
         <v>15</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI39" t="n">
         <v>19</v>
@@ -4877,13 +5267,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I40" t="n">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
@@ -4892,79 +5282,79 @@
         <v>15</v>
       </c>
       <c r="L40" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O40" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA40" t="n">
         <v>7.5</v>
       </c>
       <c r="AB40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE40" t="n">
         <v>15</v>
       </c>
-      <c r="AC40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>17</v>
-      </c>
       <c r="AF40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>
       </c>
       <c r="AI40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.44</v>
@@ -1061,7 +1061,7 @@
         <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1073,7 +1073,7 @@
         <v>7.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1088,16 +1088,16 @@
         <v>8.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1168,16 +1168,16 @@
         <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
         <v>9</v>
@@ -1192,19 +1192,19 @@
         <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>67</v>
       </c>
       <c r="AD6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1400,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P8" t="n">
         <v>1.33</v>
@@ -1418,7 +1418,7 @@
         <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U8" t="n">
         <v>5.5</v>
@@ -1439,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
         <v>29</v>
@@ -1451,7 +1451,7 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1522,10 +1522,10 @@
         <v>2.75</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
         <v>1.5</v>
@@ -2114,7 +2114,7 @@
         <v>6.25</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
         <v>1.48</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2275,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="U15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>9.5</v>
@@ -2317,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -2388,10 +2388,10 @@
         <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T16" t="n">
         <v>11</v>
@@ -2406,7 +2406,7 @@
         <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -2424,16 +2424,16 @@
         <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
         <v>67</v>
@@ -2442,7 +2442,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
         <v>1.17</v>
@@ -2516,16 +2516,16 @@
         <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V17" t="n">
         <v>8.5</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
@@ -2537,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB17" t="n">
         <v>19</v>
@@ -2549,7 +2549,7 @@
         <v>251</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
@@ -2558,7 +2558,7 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I18" t="n">
         <v>15</v>
@@ -2632,13 +2632,13 @@
         <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U18" t="n">
         <v>6.5</v>
@@ -2647,13 +2647,13 @@
         <v>10</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
         <v>19</v>
@@ -2677,7 +2677,7 @@
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="n">
         <v>201</v>
@@ -2686,7 +2686,7 @@
         <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -2974,10 +2974,10 @@
         <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
@@ -2986,10 +2986,10 @@
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -3010,7 +3010,7 @@
         <v>5.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
         <v>7</v>
@@ -3212,10 +3212,10 @@
         <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N23" t="n">
         <v>2.07</v>
@@ -3235,61 +3235,61 @@
         <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R23" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="S23" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U23" t="n">
+        <v>8</v>
+      </c>
+      <c r="V23" t="n">
         <v>8.25</v>
       </c>
-      <c r="V23" t="n">
-        <v>8</v>
-      </c>
       <c r="W23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X23" t="n">
         <v>16</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG23" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH23" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
         <v>55</v>
@@ -3336,10 +3336,10 @@
         <v>3.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3360,13 +3360,13 @@
         <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
         <v>10</v>
@@ -3381,7 +3381,7 @@
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
         <v>10</v>
@@ -3396,7 +3396,7 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE24" t="n">
         <v>10</v>
@@ -3458,10 +3458,10 @@
         <v>2.45</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
         <v>1.4</v>
@@ -3482,13 +3482,13 @@
         <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U25" t="n">
         <v>13</v>
@@ -3503,7 +3503,7 @@
         <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
         <v>8</v>
@@ -3515,10 +3515,10 @@
         <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>700</v>
+        <v>351</v>
       </c>
       <c r="AE25" t="n">
         <v>7</v>
@@ -3533,7 +3533,7 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
@@ -3693,13 +3693,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
         <v>1.05</v>
@@ -3714,10 +3714,10 @@
         <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O27" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P27" t="n">
         <v>1.36</v>
@@ -3732,10 +3732,10 @@
         <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V27" t="n">
         <v>9</v>
@@ -3744,19 +3744,19 @@
         <v>19</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z27" t="n">
         <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
@@ -3777,7 +3777,7 @@
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>34</v>
@@ -3937,46 +3937,46 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N29" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.83</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U29" t="n">
         <v>19</v>
@@ -3994,7 +3994,7 @@
         <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
@@ -4006,10 +4006,10 @@
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
         <v>9.5</v>
@@ -4021,10 +4021,10 @@
         <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H30" t="n">
         <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4080,16 +4080,16 @@
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R30" t="n">
         <v>1.67</v>
@@ -4101,7 +4101,7 @@
         <v>8.5</v>
       </c>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
@@ -4131,16 +4131,16 @@
         <v>201</v>
       </c>
       <c r="AE30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG30" t="n">
         <v>12</v>
       </c>
-      <c r="AF30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>13</v>
-      </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.7</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4202,43 +4202,43 @@
         <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O31" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V31" t="n">
         <v>9</v>
       </c>
-      <c r="V31" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X31" t="n">
         <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>7</v>
@@ -4250,13 +4250,13 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4324,10 +4324,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O32" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -4378,10 +4378,10 @@
         <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
         <v>41</v>
@@ -4425,19 +4425,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J33" t="n">
         <v>1.06</v>
       </c>
       <c r="K33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L33" t="n">
         <v>1.29</v>
@@ -4458,25 +4458,25 @@
         <v>2.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W33" t="n">
+        <v>26</v>
+      </c>
+      <c r="X33" t="n">
         <v>21</v>
-      </c>
-      <c r="X33" t="n">
-        <v>19</v>
       </c>
       <c r="Y33" t="n">
         <v>29</v>
@@ -4488,7 +4488,7 @@
         <v>6</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
         <v>41</v>
@@ -4500,19 +4500,19 @@
         <v>10</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -4547,25 +4547,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H34" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
         <v>1.7</v>
@@ -4580,13 +4580,13 @@
         <v>3.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U34" t="n">
         <v>7</v>
@@ -4595,7 +4595,7 @@
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X34" t="n">
         <v>12</v>
@@ -4604,10 +4604,10 @@
         <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB34" t="n">
         <v>19</v>
@@ -4619,13 +4619,13 @@
         <v>301</v>
       </c>
       <c r="AE34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH34" t="n">
         <v>81</v>
@@ -4693,7 +4693,7 @@
         <v>2.05</v>
       </c>
       <c r="O35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P35" t="n">
         <v>1.44</v>
@@ -4729,7 +4729,7 @@
         <v>9.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB35" t="n">
         <v>15</v>
@@ -4812,10 +4812,10 @@
         <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4922,10 +4922,10 @@
         <v>3.6</v>
       </c>
       <c r="J37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
         <v>1.33</v>
@@ -4934,10 +4934,10 @@
         <v>3.25</v>
       </c>
       <c r="N37" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H38" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="I38" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -5065,13 +5065,13 @@
         <v>35</v>
       </c>
       <c r="U38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V38" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W38" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="X38" t="n">
         <v>80</v>
@@ -5080,10 +5080,10 @@
         <v>50</v>
       </c>
       <c r="Z38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA38" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB38" t="n">
         <v>18</v>
@@ -5092,25 +5092,25 @@
         <v>50</v>
       </c>
       <c r="AD38" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AE38" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF38" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AG38" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AH38" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="39">
@@ -5145,13 +5145,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
@@ -5166,16 +5166,16 @@
         <v>4.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R39" t="n">
         <v>1.53</v>
@@ -5193,7 +5193,7 @@
         <v>10</v>
       </c>
       <c r="W39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB39" t="n">
         <v>11</v>
@@ -5214,13 +5214,13 @@
         <v>34</v>
       </c>
       <c r="AD39" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE39" t="n">
         <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
@@ -5229,7 +5229,7 @@
         <v>29</v>
       </c>
       <c r="AI39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ39" t="n">
         <v>23</v>
@@ -5267,46 +5267,46 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M40" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O40" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="P40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U40" t="n">
         <v>9.5</v>
@@ -5315,19 +5315,19 @@
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
         <v>21</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB40" t="n">
         <v>13</v>
@@ -5336,13 +5336,13 @@
         <v>41</v>
       </c>
       <c r="AD40" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG40" t="n">
         <v>15</v>
@@ -5520,10 +5520,10 @@
         <v>2.6</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -1025,7 +1025,7 @@
         <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>1.44</v>
@@ -1034,10 +1034,10 @@
         <v>2.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1162,28 +1162,28 @@
         <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
@@ -1290,10 +1290,10 @@
         <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -1305,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1314,13 +1314,13 @@
         <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
@@ -1335,10 +1335,10 @@
         <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
         <v>26</v>
@@ -1522,10 +1522,10 @@
         <v>2.75</v>
       </c>
       <c r="N9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P9" t="n">
         <v>1.5</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2138,61 +2138,61 @@
         <v>2.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X14" t="n">
         <v>41</v>
       </c>
       <c r="Y14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="n">
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB14" t="n">
         <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
         <v>8.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
         <v>11</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2275,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V15" t="n">
         <v>9.5</v>
@@ -2317,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -2370,16 +2370,16 @@
         <v>21</v>
       </c>
       <c r="L16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O16" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P16" t="n">
         <v>1.22</v>
@@ -2397,13 +2397,13 @@
         <v>11</v>
       </c>
       <c r="U16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V16" t="n">
         <v>9</v>
       </c>
-      <c r="V16" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -2433,7 +2433,7 @@
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>67</v>
@@ -2480,16 +2480,16 @@
         <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L17" t="n">
         <v>1.17</v>
@@ -2498,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O17" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P17" t="n">
         <v>1.29</v>
@@ -2516,7 +2516,7 @@
         <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U17" t="n">
         <v>7</v>
@@ -2537,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB17" t="n">
         <v>19</v>
@@ -2620,10 +2620,10 @@
         <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O18" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P18" t="n">
         <v>1.22</v>
@@ -2852,10 +2852,10 @@
         <v>5.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -3449,19 +3449,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.4</v>
@@ -3470,10 +3470,10 @@
         <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P25" t="n">
         <v>1.5</v>
@@ -3503,10 +3503,10 @@
         <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6.5</v>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H31" t="n">
         <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4214,10 +4214,10 @@
         <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
         <v>7.5</v>
@@ -4232,7 +4232,7 @@
         <v>17</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>26</v>
@@ -4241,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -4250,7 +4250,7 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE31" t="n">
         <v>11</v>
@@ -4259,7 +4259,7 @@
         <v>19</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
         <v>41</v>
@@ -4547,13 +4547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4589,7 +4589,7 @@
         <v>7.5</v>
       </c>
       <c r="U34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
@@ -4601,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z34" t="n">
         <v>13</v>
@@ -4610,13 +4610,13 @@
         <v>8.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE34" t="n">
         <v>17</v>
@@ -4628,13 +4628,13 @@
         <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -4681,7 +4681,7 @@
         <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
         <v>1.3</v>
@@ -4690,22 +4690,22 @@
         <v>3.4</v>
       </c>
       <c r="N35" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T35" t="n">
         <v>8</v>
@@ -4717,7 +4717,7 @@
         <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X35" t="n">
         <v>19</v>
@@ -4726,7 +4726,7 @@
         <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
@@ -4741,7 +4741,7 @@
         <v>251</v>
       </c>
       <c r="AE35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF35" t="n">
         <v>15</v>
@@ -4750,7 +4750,7 @@
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
         <v>23</v>
@@ -4794,7 +4794,7 @@
         <v>2.5</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
         <v>2.75</v>
@@ -4812,10 +4812,10 @@
         <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4824,16 +4824,16 @@
         <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V36" t="n">
         <v>10</v>
@@ -4842,13 +4842,13 @@
         <v>23</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
         <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -4857,25 +4857,25 @@
         <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
         <v>201</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
         <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
         <v>29</v>
@@ -4964,13 +4964,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="n">
         <v>29</v>
       </c>
       <c r="Z37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
@@ -4985,13 +4985,13 @@
         <v>301</v>
       </c>
       <c r="AE37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF37" t="n">
         <v>17</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
         <v>41</v>
@@ -5056,10 +5056,10 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S38" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="T38" t="n">
         <v>35</v>
@@ -5077,7 +5077,7 @@
         <v>80</v>
       </c>
       <c r="Y38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z38" t="n">
         <v>29</v>
@@ -5160,16 +5160,16 @@
         <v>15</v>
       </c>
       <c r="L39" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N39" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P39" t="n">
         <v>1.33</v>
@@ -5267,10 +5267,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I40" t="n">
         <v>4.75</v>
@@ -5279,37 +5279,37 @@
         <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L40" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O40" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P40" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
@@ -5324,10 +5324,10 @@
         <v>21</v>
       </c>
       <c r="Z40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB40" t="n">
         <v>13</v>
@@ -5336,13 +5336,13 @@
         <v>41</v>
       </c>
       <c r="AD40" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE40" t="n">
         <v>17</v>
       </c>
       <c r="AF40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG40" t="n">
         <v>15</v>
@@ -5666,10 +5666,10 @@
         <v>3.75</v>
       </c>
       <c r="R43" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T43" t="n">
         <v>19</v>
@@ -5708,7 +5708,7 @@
         <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG43" t="n">
         <v>8.5</v>
@@ -6124,43 +6124,43 @@
         <v>5.5</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I47" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L47" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M47" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="N47" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P47" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S47" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U47" t="n">
         <v>35</v>
@@ -6172,43 +6172,43 @@
         <v>110</v>
       </c>
       <c r="X47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y47" t="n">
         <v>50</v>
       </c>
       <c r="Z47" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB47" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD47" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE47" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AG47" t="n">
         <v>8</v>
       </c>
       <c r="AH47" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI47" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ47" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -662,16 +662,16 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -778,16 +778,16 @@
         <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
         <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N3" t="n">
         <v>2.35</v>
@@ -900,16 +900,16 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K4" t="n">
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N4" t="n">
         <v>2.35</v>
@@ -942,7 +942,7 @@
         <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>34</v>
@@ -963,7 +963,7 @@
         <v>401</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
@@ -1022,16 +1022,16 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
         <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N5" t="n">
         <v>2.3</v>
@@ -1055,7 +1055,7 @@
         <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
@@ -1064,7 +1064,7 @@
         <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
@@ -1073,7 +1073,7 @@
         <v>7.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1135,25 +1135,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N6" t="n">
         <v>2.35</v>
@@ -1177,13 +1177,13 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
         <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
@@ -1204,13 +1204,13 @@
         <v>67</v>
       </c>
       <c r="AD6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1257,25 +1257,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K7" t="n">
         <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N7" t="n">
         <v>2.35</v>
@@ -1341,7 +1341,7 @@
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1388,13 +1388,13 @@
         <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
         <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
@@ -1510,22 +1510,22 @@
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
         <v>1.5</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1650,7 +1650,7 @@
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q10" t="n">
         <v>2.25</v>
@@ -1698,7 +1698,7 @@
         <v>7.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1772,7 +1772,7 @@
         <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
         <v>2.2</v>
@@ -1793,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -1876,10 +1876,10 @@
         <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
         <v>1.4</v>
@@ -1894,7 +1894,7 @@
         <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q12" t="n">
         <v>2.5</v>
@@ -2016,7 +2016,7 @@
         <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q13" t="n">
         <v>2.25</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2138,16 +2138,16 @@
         <v>2.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
         <v>21</v>
@@ -2162,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="X14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
@@ -2174,7 +2174,7 @@
         <v>8.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>34</v>
@@ -2183,7 +2183,7 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -2198,7 +2198,7 @@
         <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2254,16 +2254,16 @@
         <v>3.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O15" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>1.67</v>
@@ -2275,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="U15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>9.5</v>
@@ -2305,7 +2305,7 @@
         <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -2317,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -2400,10 +2400,10 @@
         <v>9.5</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -2427,13 +2427,13 @@
         <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
         <v>67</v>
@@ -2489,7 +2489,7 @@
         <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
         <v>1.17</v>
@@ -2602,7 +2602,7 @@
         <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
         <v>15</v>
@@ -2611,7 +2611,7 @@
         <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L18" t="n">
         <v>1.13</v>
@@ -2638,7 +2638,7 @@
         <v>1.62</v>
       </c>
       <c r="T18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U18" t="n">
         <v>6.5</v>
@@ -2653,7 +2653,7 @@
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
         <v>19</v>
@@ -2671,16 +2671,16 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
         <v>41</v>
       </c>
       <c r="AH18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AI18" t="n">
         <v>101</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2736,10 +2736,10 @@
         <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N19" t="n">
         <v>2.4</v>
@@ -2754,22 +2754,22 @@
         <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T19" t="n">
         <v>5</v>
       </c>
       <c r="U19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -2778,16 +2778,16 @@
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD19" t="n">
         <v>101</v>
@@ -2796,16 +2796,16 @@
         <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI19" t="n">
         <v>51</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>41</v>
       </c>
       <c r="AJ19" t="n">
         <v>51</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H21" t="n">
         <v>5.5</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2998,10 +2998,10 @@
         <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
         <v>6.5</v>
@@ -3037,22 +3037,22 @@
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI21" t="n">
         <v>101</v>
       </c>
       <c r="AJ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
         <v>1.08</v>
@@ -3108,10 +3108,10 @@
         <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O22" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
@@ -3120,19 +3120,19 @@
         <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T22" t="n">
         <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W22" t="n">
         <v>17</v>
@@ -3162,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
@@ -4800,22 +4800,22 @@
         <v>2.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="H38" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="I38" t="n">
         <v>1.18</v>
@@ -5048,24 +5048,24 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="O38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="S38" t="n">
-        <v>2.17</v>
+        <v>2.01</v>
       </c>
       <c r="T38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V38" t="n">
         <v>27</v>
@@ -5080,37 +5080,37 @@
         <v>55</v>
       </c>
       <c r="Z38" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA38" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD38" t="n">
         <v>250</v>
       </c>
       <c r="AE38" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AG38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AI38" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -5148,10 +5148,10 @@
         <v>2.45</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
@@ -5160,31 +5160,31 @@
         <v>15</v>
       </c>
       <c r="L39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O39" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U39" t="n">
         <v>15</v>
@@ -5199,13 +5199,13 @@
         <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z39" t="n">
         <v>15</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB39" t="n">
         <v>11</v>
@@ -5214,10 +5214,10 @@
         <v>34</v>
       </c>
       <c r="AD39" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF39" t="n">
         <v>17</v>
@@ -5389,13 +5389,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5431,7 +5431,7 @@
         <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V41" t="n">
         <v>10</v>
@@ -5636,10 +5636,10 @@
         <v>4.75</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J43" t="n">
         <v>1.03</v>
@@ -5687,13 +5687,13 @@
         <v>34</v>
       </c>
       <c r="Y43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="n">
         <v>17</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB43" t="n">
         <v>12</v>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J44" t="n">
         <v>1.1</v>
@@ -5794,7 +5794,7 @@
         <v>1.62</v>
       </c>
       <c r="T44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U44" t="n">
         <v>8.5</v>
@@ -5803,7 +5803,7 @@
         <v>9.5</v>
       </c>
       <c r="W44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
@@ -5821,25 +5821,25 @@
         <v>19</v>
       </c>
       <c r="AC44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="n">
         <v>101</v>
       </c>
       <c r="AE44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF44" t="n">
         <v>17</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
         <v>41</v>
       </c>
       <c r="AI44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -1257,25 +1257,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
         <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N7" t="n">
         <v>2.35</v>
@@ -1311,7 +1311,7 @@
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
         <v>7</v>
@@ -1388,13 +1388,13 @@
         <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
         <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
@@ -1510,16 +1510,16 @@
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N9" t="n">
         <v>2.25</v>
@@ -1650,7 +1650,7 @@
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
         <v>2.25</v>
@@ -1772,7 +1772,7 @@
         <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q11" t="n">
         <v>2.2</v>
@@ -1894,7 +1894,7 @@
         <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
         <v>2.5</v>
@@ -2016,7 +2016,7 @@
         <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q13" t="n">
         <v>2.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -662,16 +662,16 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -778,16 +778,16 @@
         <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K3" t="n">
         <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N3" t="n">
         <v>2.35</v>
@@ -796,10 +796,10 @@
         <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
         <v>2.1</v>
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
@@ -829,13 +829,13 @@
         <v>7.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="n">
         <v>501</v>
@@ -900,16 +900,16 @@
         <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N4" t="n">
         <v>2.35</v>
@@ -1022,16 +1022,16 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K5" t="n">
         <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N5" t="n">
         <v>2.3</v>
@@ -1135,25 +1135,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
         <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N6" t="n">
         <v>2.35</v>
@@ -1180,7 +1180,7 @@
         <v>8.5</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
         <v>17</v>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>67</v>
@@ -1213,13 +1213,13 @@
         <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>1.1</v>
@@ -1311,7 +1311,7 @@
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
         <v>7</v>
@@ -1522,16 +1522,16 @@
         <v>2.75</v>
       </c>
       <c r="N9" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
@@ -1546,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="V9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
         <v>21</v>
@@ -1564,7 +1564,7 @@
         <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
         <v>67</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1698,7 +1698,7 @@
         <v>7.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N11" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
         <v>1.62</v>
@@ -1787,7 +1787,7 @@
         <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V11" t="n">
         <v>10</v>
@@ -1802,7 +1802,7 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
@@ -1817,7 +1817,7 @@
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
@@ -1888,10 +1888,10 @@
         <v>2.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P12" t="n">
         <v>1.5</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2138,10 +2138,10 @@
         <v>2.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R14" t="n">
         <v>1.5</v>
@@ -2153,7 +2153,7 @@
         <v>21</v>
       </c>
       <c r="U14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V14" t="n">
         <v>17</v>
@@ -2168,7 +2168,7 @@
         <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
         <v>8.5</v>
@@ -2183,7 +2183,7 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -2195,10 +2195,10 @@
         <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -2233,94 +2233,94 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K15" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U15" t="n">
         <v>11</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>9</v>
-      </c>
-      <c r="U15" t="n">
-        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>9.5</v>
       </c>
       <c r="W15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X15" t="n">
         <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2355,37 +2355,37 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O16" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R16" t="n">
         <v>1.57</v>
@@ -2394,28 +2394,28 @@
         <v>2.25</v>
       </c>
       <c r="T16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U16" t="n">
         <v>9.5</v>
       </c>
       <c r="V16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
         <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2427,13 +2427,13 @@
         <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>67</v>
@@ -2442,7 +2442,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -2483,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2492,10 +2492,10 @@
         <v>17</v>
       </c>
       <c r="L17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N17" t="n">
         <v>1.53</v>
@@ -2504,10 +2504,10 @@
         <v>2.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R17" t="n">
         <v>1.8</v>
@@ -2519,7 +2519,7 @@
         <v>8.5</v>
       </c>
       <c r="U17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V17" t="n">
         <v>8.5</v>
@@ -2546,16 +2546,16 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
         <v>101</v>
@@ -2599,25 +2599,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N18" t="n">
         <v>1.4</v>
@@ -2644,7 +2644,7 @@
         <v>6.5</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W18" t="n">
         <v>6.5</v>
@@ -2653,7 +2653,7 @@
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
         <v>19</v>
@@ -2662,7 +2662,7 @@
         <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
         <v>81</v>
@@ -2671,10 +2671,10 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
         <v>41</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2766,10 +2766,10 @@
         <v>6.5</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -2778,16 +2778,16 @@
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="n">
         <v>101</v>
@@ -2796,13 +2796,13 @@
         <v>10</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="n">
         <v>51</v>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
         <v>5.75</v>
@@ -2870,10 +2870,10 @@
         <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
         <v>2.25</v>
@@ -2915,7 +2915,7 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>26</v>
@@ -2974,16 +2974,16 @@
         <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N21" t="n">
         <v>1.7</v>
@@ -3019,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="n">
         <v>11</v>
@@ -3037,13 +3037,13 @@
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH21" t="n">
         <v>201</v>
@@ -3052,7 +3052,7 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -3090,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
         <v>3.75</v>
@@ -3099,7 +3099,7 @@
         <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.4</v>
@@ -3120,10 +3120,10 @@
         <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T22" t="n">
         <v>6</v>
@@ -3144,7 +3144,7 @@
         <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA22" t="n">
         <v>6.5</v>
@@ -3162,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3209,33 +3209,33 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="N23" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
         <v>1.87</v>
@@ -3244,28 +3244,28 @@
         <v>1.75</v>
       </c>
       <c r="T23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V23" t="n">
         <v>8.25</v>
       </c>
       <c r="W23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="n">
         <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB23" t="n">
         <v>16</v>
@@ -3277,16 +3277,16 @@
         <v>800</v>
       </c>
       <c r="AE23" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
         <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="n">
         <v>50</v>
@@ -3336,10 +3336,10 @@
         <v>3.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3348,10 +3348,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
@@ -3461,7 +3461,7 @@
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.4</v>
@@ -3470,10 +3470,10 @@
         <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
         <v>1.5</v>
@@ -3580,10 +3580,10 @@
         <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L26" t="n">
         <v>1.22</v>
@@ -3693,13 +3693,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
         <v>1.05</v>
@@ -3714,16 +3714,16 @@
         <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R27" t="n">
         <v>1.67</v>
@@ -3732,7 +3732,7 @@
         <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U27" t="n">
         <v>11</v>
@@ -3741,16 +3741,16 @@
         <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X27" t="n">
         <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
@@ -3765,16 +3765,16 @@
         <v>151</v>
       </c>
       <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12</v>
       </c>
-      <c r="AF27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13</v>
-      </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
         <v>1.07</v>
@@ -3830,16 +3830,16 @@
         <v>9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P28" t="n">
         <v>1.44</v>
@@ -3848,31 +3848,31 @@
         <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S28" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U28" t="n">
+        <v>15</v>
+      </c>
+      <c r="V28" t="n">
         <v>12</v>
       </c>
-      <c r="V28" t="n">
-        <v>10</v>
-      </c>
       <c r="W28" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3884,25 +3884,25 @@
         <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>29</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -3937,19 +3937,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
         <v>1.95</v>
       </c>
       <c r="J29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
         <v>1.33</v>
@@ -3979,7 +3979,7 @@
         <v>10</v>
       </c>
       <c r="U29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V29" t="n">
         <v>13</v>
@@ -4006,7 +4006,7 @@
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE29" t="n">
         <v>7</v>
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4074,16 +4074,16 @@
         <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O30" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4092,13 +4092,13 @@
         <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
         <v>11</v>
@@ -4107,7 +4107,7 @@
         <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X30" t="n">
         <v>17</v>
@@ -4116,7 +4116,7 @@
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
@@ -4303,19 +4303,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
         <v>1.22</v>
@@ -4324,10 +4324,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O32" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -4345,7 +4345,7 @@
         <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
@@ -4354,19 +4354,19 @@
         <v>15</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>23</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
         <v>41</v>
@@ -4375,7 +4375,7 @@
         <v>151</v>
       </c>
       <c r="AE32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
         <v>23</v>
@@ -4384,10 +4384,10 @@
         <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
@@ -4547,25 +4547,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N34" t="n">
         <v>1.7</v>
@@ -4589,7 +4589,7 @@
         <v>7.5</v>
       </c>
       <c r="U34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
@@ -4601,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z34" t="n">
         <v>13</v>
@@ -4610,16 +4610,16 @@
         <v>8.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="n">
         <v>34</v>
@@ -4628,13 +4628,13 @@
         <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
@@ -4672,43 +4672,43 @@
         <v>2.38</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K35" t="n">
+        <v>9</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M35" t="n">
         <v>3</v>
       </c>
-      <c r="J35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K35" t="n">
-        <v>10</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3.4</v>
-      </c>
       <c r="N35" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="P35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U35" t="n">
         <v>11</v>
@@ -4717,19 +4717,19 @@
         <v>9.5</v>
       </c>
       <c r="W35" t="n">
+        <v>23</v>
+      </c>
+      <c r="X35" t="n">
         <v>21</v>
       </c>
-      <c r="X35" t="n">
-        <v>19</v>
-      </c>
       <c r="Y35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB35" t="n">
         <v>15</v>
@@ -4738,10 +4738,10 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF35" t="n">
         <v>15</v>
@@ -4753,7 +4753,7 @@
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -4794,10 +4794,10 @@
         <v>2.5</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J36" t="n">
         <v>1.06</v>
@@ -4806,31 +4806,31 @@
         <v>10</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N36" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="O36" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T36" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U36" t="n">
         <v>12</v>
@@ -4845,25 +4845,25 @@
         <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
         <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF36" t="n">
         <v>13</v>
@@ -4878,7 +4878,7 @@
         <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -4913,25 +4913,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
         <v>2.1</v>
@@ -4955,13 +4955,13 @@
         <v>7</v>
       </c>
       <c r="U37" t="n">
+        <v>10</v>
+      </c>
+      <c r="V37" t="n">
         <v>9.5</v>
       </c>
-      <c r="V37" t="n">
-        <v>9</v>
-      </c>
       <c r="W37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X37" t="n">
         <v>19</v>
@@ -4973,7 +4973,7 @@
         <v>8.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB37" t="n">
         <v>15</v>
@@ -4985,16 +4985,16 @@
         <v>301</v>
       </c>
       <c r="AE37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
         <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI37" t="n">
         <v>29</v>
@@ -5035,73 +5035,73 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I38" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="O38" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="S38" t="n">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="T38" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U38" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="V38" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W38" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="n">
         <v>55</v>
       </c>
       <c r="Z38" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC38" t="n">
         <v>55</v>
       </c>
       <c r="AD38" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE38" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF38" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AG38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH38" t="n">
         <v>7.1</v>
@@ -5145,13 +5145,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
@@ -5184,13 +5184,13 @@
         <v>2.5</v>
       </c>
       <c r="T39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W39" t="n">
         <v>23</v>
@@ -5267,13 +5267,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
@@ -5306,19 +5306,19 @@
         <v>2.2</v>
       </c>
       <c r="T40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
+        <v>15</v>
+      </c>
+      <c r="X40" t="n">
         <v>13</v>
-      </c>
-      <c r="X40" t="n">
-        <v>12</v>
       </c>
       <c r="Y40" t="n">
         <v>21</v>
@@ -5339,19 +5339,19 @@
         <v>151</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG40" t="n">
         <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
         <v>34</v>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H44" t="n">
         <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
         <v>1.1</v>
@@ -5794,7 +5794,7 @@
         <v>1.62</v>
       </c>
       <c r="T44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U44" t="n">
         <v>8.5</v>
@@ -5803,7 +5803,7 @@
         <v>9.5</v>
       </c>
       <c r="W44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
@@ -5827,19 +5827,19 @@
         <v>101</v>
       </c>
       <c r="AE44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF44" t="n">
         <v>17</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH44" t="n">
         <v>41</v>
       </c>
       <c r="AI44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ44" t="n">
         <v>41</v>
@@ -5883,13 +5883,13 @@
         <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J45" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
         <v>1.5</v>
@@ -5916,7 +5916,7 @@
         <v>1.62</v>
       </c>
       <c r="T45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U45" t="n">
         <v>8.5</v>
@@ -5943,7 +5943,7 @@
         <v>19</v>
       </c>
       <c r="AC45" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD45" t="n">
         <v>101</v>
@@ -5999,7 +5999,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H46" t="n">
         <v>3.25</v>
@@ -6008,22 +6008,22 @@
         <v>2.05</v>
       </c>
       <c r="J46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6041,7 +6041,7 @@
         <v>9.5</v>
       </c>
       <c r="U46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V46" t="n">
         <v>13</v>
@@ -6059,7 +6059,7 @@
         <v>8</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB46" t="n">
         <v>17</v>
@@ -6080,7 +6080,7 @@
         <v>9</v>
       </c>
       <c r="AH46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI46" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -680,10 +680,10 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T2" t="n">
         <v>9</v>
@@ -701,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -790,10 +790,10 @@
         <v>2.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
         <v>1.5</v>
@@ -829,7 +829,7 @@
         <v>7.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -891,46 +891,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.57</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
         <v>11</v>
@@ -942,28 +942,28 @@
         <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA4" t="n">
         <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
@@ -1135,64 +1135,64 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="O6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.57</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1207,19 +1207,19 @@
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1379,52 +1379,52 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O8" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
@@ -1436,22 +1436,22 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1460,10 +1460,10 @@
         <v>34</v>
       </c>
       <c r="AH8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ8" t="n">
         <v>81</v>
@@ -1501,46 +1501,46 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.44</v>
       </c>
-      <c r="M9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1.57</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U9" t="n">
         <v>10</v>
@@ -1549,37 +1549,37 @@
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>1.57</v>
@@ -1766,10 +1766,10 @@
         <v>2.25</v>
       </c>
       <c r="N11" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
         <v>1.62</v>
@@ -1778,22 +1778,22 @@
         <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
         <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -1802,7 +1802,7 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
@@ -1817,7 +1817,7 @@
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>1.07</v>
@@ -1900,10 +1900,10 @@
         <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T12" t="n">
         <v>5.5</v>
@@ -1992,43 +1992,43 @@
         <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N13" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U13" t="n">
         <v>9.5</v>
@@ -2040,28 +2040,28 @@
         <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="n">
         <v>1250</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF13" t="n">
         <v>15</v>
@@ -2076,7 +2076,7 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2144,10 +2144,10 @@
         <v>3.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T14" t="n">
         <v>21</v>
@@ -2156,49 +2156,49 @@
         <v>29</v>
       </c>
       <c r="V14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
         <v>51</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="n">
         <v>12</v>
       </c>
-      <c r="AC14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>11</v>
       </c>
-      <c r="AF14" t="n">
-        <v>10</v>
-      </c>
       <c r="AG14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>12</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2275,10 +2275,10 @@
         <v>7.5</v>
       </c>
       <c r="U15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W15" t="n">
         <v>21</v>
@@ -2296,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
@@ -2305,10 +2305,10 @@
         <v>251</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2317,7 +2317,7 @@
         <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H16" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
         <v>1.01</v>
@@ -2370,22 +2370,22 @@
         <v>23</v>
       </c>
       <c r="L16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O16" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="P16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
         <v>1.57</v>
@@ -2394,19 +2394,19 @@
         <v>2.25</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U16" t="n">
         <v>9.5</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W16" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" t="n">
         <v>11</v>
-      </c>
-      <c r="X16" t="n">
-        <v>10</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -2415,7 +2415,7 @@
         <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2427,13 +2427,13 @@
         <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
         <v>67</v>
@@ -2442,7 +2442,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2480,91 +2480,91 @@
         <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I17" t="n">
         <v>8.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
+        <v>21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11</v>
+      </c>
+      <c r="U17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="n">
         <v>17</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>19</v>
-      </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
       </c>
       <c r="AJ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2602,91 +2602,91 @@
         <v>1.13</v>
       </c>
       <c r="H18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="M18" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O18" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="T18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U18" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
         <v>11</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF18" t="n">
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2736,10 +2736,10 @@
         <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N19" t="n">
         <v>2.4</v>
@@ -2769,7 +2769,7 @@
         <v>9.5</v>
       </c>
       <c r="W19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -2781,13 +2781,13 @@
         <v>7</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD19" t="n">
         <v>101</v>
@@ -2852,10 +2852,10 @@
         <v>5.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I21" t="n">
         <v>15</v>
@@ -2977,7 +2977,7 @@
         <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
         <v>1.2</v>
@@ -2986,10 +2986,10 @@
         <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -3013,16 +3013,16 @@
         <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
         <v>11</v>
@@ -3037,13 +3037,13 @@
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="n">
         <v>201</v>
@@ -3052,7 +3052,7 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -3099,7 +3099,7 @@
         <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
         <v>1.4</v>
@@ -3449,19 +3449,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
         <v>2.35</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
         <v>1.4</v>
@@ -3470,10 +3470,10 @@
         <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P25" t="n">
         <v>1.5</v>
@@ -3482,13 +3482,13 @@
         <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U25" t="n">
         <v>13</v>
@@ -3506,7 +3506,7 @@
         <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA25" t="n">
         <v>6.5</v>
@@ -3515,7 +3515,7 @@
         <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="n">
         <v>351</v>
@@ -3640,7 +3640,7 @@
         <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -3693,13 +3693,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
         <v>1.05</v>
@@ -3708,16 +3708,16 @@
         <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O27" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3738,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W27" t="n">
         <v>21</v>
@@ -3756,13 +3756,13 @@
         <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
       </c>
       <c r="AD27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE27" t="n">
         <v>11</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="J28" t="n">
         <v>1.07</v>
@@ -3842,10 +3842,10 @@
         <v>1.67</v>
       </c>
       <c r="P28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
         <v>1.83</v>
@@ -3854,25 +3854,25 @@
         <v>1.83</v>
       </c>
       <c r="T28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X28" t="n">
         <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3890,19 +3890,19 @@
         <v>7.5</v>
       </c>
       <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
         <v>10</v>
       </c>
-      <c r="AG28" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI28" t="n">
         <v>21</v>
       </c>
-      <c r="AI28" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -3937,19 +3937,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.33</v>
@@ -3976,31 +3976,31 @@
         <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W29" t="n">
         <v>41</v>
       </c>
       <c r="X29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="n">
         <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
@@ -4012,16 +4012,16 @@
         <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>29</v>
@@ -4202,10 +4202,10 @@
         <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O31" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4446,10 +4446,10 @@
         <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P33" t="n">
         <v>1.4</v>
@@ -4547,31 +4547,31 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O34" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4589,52 +4589,52 @@
         <v>7.5</v>
       </c>
       <c r="U34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X34" t="n">
         <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
         <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -4669,19 +4669,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
         <v>1.36</v>
@@ -4690,16 +4690,16 @@
         <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
         <v>1.91</v>
@@ -4714,7 +4714,7 @@
         <v>11</v>
       </c>
       <c r="V35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W35" t="n">
         <v>23</v>
@@ -4726,7 +4726,7 @@
         <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA35" t="n">
         <v>6</v>
@@ -4756,7 +4756,7 @@
         <v>26</v>
       </c>
       <c r="AJ35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
@@ -4791,13 +4791,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H36" t="n">
         <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J36" t="n">
         <v>1.06</v>
@@ -4812,10 +4812,10 @@
         <v>3.25</v>
       </c>
       <c r="N36" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P36" t="n">
         <v>1.44</v>
@@ -4824,13 +4824,13 @@
         <v>2.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U36" t="n">
         <v>12</v>
@@ -4839,7 +4839,7 @@
         <v>10</v>
       </c>
       <c r="W36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -4848,7 +4848,7 @@
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
         <v>6</v>
@@ -4913,13 +4913,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J37" t="n">
         <v>1.07</v>
@@ -4928,10 +4928,10 @@
         <v>9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N37" t="n">
         <v>2.1</v>
@@ -4952,10 +4952,10 @@
         <v>1.91</v>
       </c>
       <c r="T37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V37" t="n">
         <v>9.5</v>
@@ -4997,10 +4997,10 @@
         <v>34</v>
       </c>
       <c r="AI37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -5035,82 +5035,82 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="H38" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="O38" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="S38" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="T38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U38" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="V38" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="W38" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="X38" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Y38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD38" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE38" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AG38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI38" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -5431,7 +5431,7 @@
         <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V41" t="n">
         <v>10</v>
@@ -5639,7 +5639,7 @@
         <v>3.9</v>
       </c>
       <c r="I43" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J43" t="n">
         <v>1.03</v>
@@ -5666,10 +5666,10 @@
         <v>3.75</v>
       </c>
       <c r="R43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T43" t="n">
         <v>19</v>
@@ -5684,10 +5684,10 @@
         <v>51</v>
       </c>
       <c r="X43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z43" t="n">
         <v>17</v>
@@ -5708,7 +5708,7 @@
         <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG43" t="n">
         <v>8.5</v>
@@ -6014,16 +6014,16 @@
         <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -790,10 +790,10 @@
         <v>2.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>1.5</v>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
         <v>17</v>
@@ -829,19 +829,19 @@
         <v>7.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="n">
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -1013,91 +1013,91 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N5" t="n">
         <v>2.15</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.44</v>
       </c>
-      <c r="M5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1135,37 +1135,37 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.53</v>
       </c>
-      <c r="M6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.48</v>
-      </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
         <v>2.1</v>
@@ -1174,28 +1174,28 @@
         <v>1.67</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
+        <v>17</v>
+      </c>
+      <c r="X6" t="n">
         <v>19</v>
-      </c>
-      <c r="X6" t="n">
-        <v>21</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
       </c>
       <c r="Z6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA6" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>6</v>
       </c>
       <c r="AB6" t="n">
         <v>19</v>
@@ -1207,22 +1207,22 @@
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.1</v>
@@ -1278,10 +1278,10 @@
         <v>2.75</v>
       </c>
       <c r="N7" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
         <v>1.53</v>
@@ -1296,28 +1296,28 @@
         <v>1.75</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U7" t="n">
+        <v>12</v>
+      </c>
+      <c r="V7" t="n">
         <v>11</v>
       </c>
-      <c r="V7" t="n">
-        <v>10</v>
-      </c>
       <c r="W7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
         <v>7</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB7" t="n">
         <v>17</v>
@@ -1329,19 +1329,19 @@
         <v>401</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1400,10 +1400,10 @@
         <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P8" t="n">
         <v>1.29</v>
@@ -1424,19 +1424,19 @@
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1451,13 +1451,13 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="n">
         <v>201</v>
@@ -1501,82 +1501,82 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.5</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T9" t="n">
-        <v>6</v>
-      </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="n">
         <v>501</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
         <v>1.13</v>
@@ -1784,7 +1784,7 @@
         <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
@@ -1793,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -1817,7 +1817,7 @@
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2144,61 +2144,61 @@
         <v>3.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="T14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="U14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="W14" t="n">
+        <v>101</v>
+      </c>
+      <c r="X14" t="n">
         <v>51</v>
       </c>
-      <c r="X14" t="n">
-        <v>29</v>
-      </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF14" t="n">
         <v>8</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11</v>
       </c>
       <c r="AG14" t="n">
         <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -2236,10 +2236,10 @@
         <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
@@ -2254,10 +2254,10 @@
         <v>3.25</v>
       </c>
       <c r="N15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -2272,13 +2272,13 @@
         <v>1.95</v>
       </c>
       <c r="T15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
         <v>10</v>
       </c>
       <c r="V15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W15" t="n">
         <v>21</v>
@@ -2290,7 +2290,7 @@
         <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
@@ -2302,10 +2302,10 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF15" t="n">
         <v>17</v>
@@ -2314,13 +2314,13 @@
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2364,10 +2364,10 @@
         <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L16" t="n">
         <v>1.11</v>
@@ -2400,7 +2400,7 @@
         <v>9.5</v>
       </c>
       <c r="V16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
         <v>12</v>
@@ -2498,10 +2498,10 @@
         <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O17" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P17" t="n">
         <v>1.22</v>
@@ -2641,13 +2641,13 @@
         <v>12</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V18" t="n">
         <v>11</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2677,7 +2677,7 @@
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="n">
         <v>201</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2742,16 +2742,16 @@
         <v>2.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
         <v>2.38</v>
@@ -2769,10 +2769,10 @@
         <v>9.5</v>
       </c>
       <c r="W19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
         <v>41</v>
@@ -2781,7 +2781,7 @@
         <v>7</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -2793,7 +2793,7 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF19" t="n">
         <v>23</v>
@@ -2852,22 +2852,22 @@
         <v>5.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2897,7 +2897,7 @@
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
         <v>7</v>
@@ -2977,7 +2977,7 @@
         <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>1.2</v>
@@ -2986,10 +2986,10 @@
         <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I23" t="n">
         <v>4.4</v>
@@ -3220,52 +3220,52 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S23" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U23" t="n">
         <v>8.25</v>
       </c>
       <c r="V23" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
         <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB23" t="n">
         <v>16</v>
@@ -3274,10 +3274,10 @@
         <v>90</v>
       </c>
       <c r="AD23" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>24</v>
@@ -3449,46 +3449,46 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T25" t="n">
         <v>8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T25" t="n">
-        <v>7.5</v>
       </c>
       <c r="U25" t="n">
         <v>13</v>
@@ -3500,13 +3500,13 @@
         <v>29</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>6.5</v>
@@ -3515,13 +3515,13 @@
         <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD25" t="n">
         <v>351</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3693,31 +3693,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3732,16 +3732,16 @@
         <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X27" t="n">
         <v>17</v>
@@ -3765,19 +3765,19 @@
         <v>201</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
         <v>34</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.07</v>
@@ -3836,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P28" t="n">
         <v>1.5</v>
@@ -3854,7 +3854,7 @@
         <v>1.83</v>
       </c>
       <c r="T28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U28" t="n">
         <v>13</v>
@@ -3866,7 +3866,7 @@
         <v>29</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
         <v>34</v>
@@ -3890,16 +3890,16 @@
         <v>7.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
       </c>
       <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
         <v>23</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>21</v>
       </c>
       <c r="AJ28" t="n">
         <v>34</v>
@@ -3937,19 +3937,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
         <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
         <v>1.33</v>
@@ -3958,10 +3958,10 @@
         <v>3.25</v>
       </c>
       <c r="N29" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
         <v>1.44</v>
@@ -3979,10 +3979,10 @@
         <v>11</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
         <v>41</v>
@@ -4000,7 +4000,7 @@
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
@@ -4012,16 +4012,16 @@
         <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>29</v>
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4080,10 +4080,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4098,19 +4098,19 @@
         <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
         <v>26</v>
@@ -4131,19 +4131,19 @@
         <v>201</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
         <v>34</v>
@@ -4547,13 +4547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4580,55 +4580,55 @@
         <v>3.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG34" t="n">
         <v>17</v>
       </c>
-      <c r="AF34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>19</v>
-      </c>
       <c r="AH34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="n">
         <v>41</v>
@@ -4669,19 +4669,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
         <v>1.36</v>
@@ -4702,25 +4702,25 @@
         <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T35" t="n">
         <v>7.5</v>
       </c>
       <c r="U35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V35" t="n">
         <v>10</v>
       </c>
       <c r="W35" t="n">
+        <v>26</v>
+      </c>
+      <c r="X35" t="n">
         <v>23</v>
-      </c>
-      <c r="X35" t="n">
-        <v>21</v>
       </c>
       <c r="Y35" t="n">
         <v>34</v>
@@ -4738,25 +4738,25 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
       </c>
       <c r="AH35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>34</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="36">
@@ -4791,13 +4791,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I36" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.8</v>
       </c>
       <c r="J36" t="n">
         <v>1.06</v>
@@ -4806,10 +4806,10 @@
         <v>10</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N36" t="n">
         <v>2.05</v>
@@ -4830,28 +4830,28 @@
         <v>1.95</v>
       </c>
       <c r="T36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W36" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
         <v>15</v>
@@ -4860,22 +4860,22 @@
         <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ36" t="n">
         <v>34</v>
@@ -4913,13 +4913,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n">
         <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J37" t="n">
         <v>1.07</v>
@@ -4928,16 +4928,16 @@
         <v>9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -4952,10 +4952,10 @@
         <v>1.91</v>
       </c>
       <c r="T37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V37" t="n">
         <v>9.5</v>
@@ -4997,10 +4997,10 @@
         <v>34</v>
       </c>
       <c r="AI37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="H38" t="n">
         <v>6.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -5056,19 +5056,19 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S38" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T38" t="n">
         <v>32</v>
       </c>
       <c r="U38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W38" t="n">
         <v>250</v>
@@ -5083,7 +5083,7 @@
         <v>22</v>
       </c>
       <c r="AA38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB38" t="n">
         <v>20</v>
@@ -5101,10 +5101,10 @@
         <v>6.7</v>
       </c>
       <c r="AG38" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI38" t="n">
         <v>8.5</v>
@@ -5389,13 +5389,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5410,10 +5410,10 @@
         <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P41" t="n">
         <v>1.36</v>
@@ -5428,19 +5428,19 @@
         <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V41" t="n">
         <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="n">
         <v>26</v>
@@ -5461,22 +5461,22 @@
         <v>151</v>
       </c>
       <c r="AE41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF41" t="n">
         <v>15</v>
       </c>
       <c r="AG41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI41" t="n">
         <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -5511,19 +5511,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -5550,10 +5550,10 @@
         <v>1.95</v>
       </c>
       <c r="T42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V42" t="n">
         <v>11</v>
@@ -5574,7 +5574,7 @@
         <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="n">
         <v>51</v>
@@ -5583,22 +5583,22 @@
         <v>251</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG42" t="n">
         <v>10</v>
       </c>
       <c r="AH42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
         <v>21</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -5633,31 +5633,31 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L43" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M43" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N43" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O43" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P43" t="n">
         <v>1.25</v>
@@ -5672,25 +5672,25 @@
         <v>2.5</v>
       </c>
       <c r="T43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U43" t="n">
         <v>29</v>
       </c>
       <c r="V43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W43" t="n">
         <v>51</v>
       </c>
       <c r="X43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y43" t="n">
         <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="n">
         <v>8</v>
@@ -5761,25 +5761,25 @@
         <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K44" t="n">
         <v>7</v>
       </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N44" t="n">
         <v>2.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P44" t="n">
         <v>1.57</v>
@@ -5791,7 +5791,7 @@
         <v>2.2</v>
       </c>
       <c r="S44" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T44" t="n">
         <v>6</v>
@@ -5821,25 +5821,25 @@
         <v>19</v>
       </c>
       <c r="AC44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD44" t="n">
         <v>101</v>
       </c>
       <c r="AE44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF44" t="n">
         <v>17</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
         <v>41</v>
       </c>
       <c r="AI44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="n">
         <v>41</v>
@@ -5886,13 +5886,13 @@
         <v>3.7</v>
       </c>
       <c r="J45" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K45" t="n">
         <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M45" t="n">
         <v>2.5</v>
@@ -5901,7 +5901,7 @@
         <v>2.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P45" t="n">
         <v>1.57</v>
@@ -5913,7 +5913,7 @@
         <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T45" t="n">
         <v>6</v>
@@ -5999,31 +5999,31 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="J46" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K46" t="n">
         <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O46" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6032,19 +6032,19 @@
         <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="T46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W46" t="n">
         <v>41</v>
@@ -6059,7 +6059,7 @@
         <v>8</v>
       </c>
       <c r="AA46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
         <v>17</v>
@@ -6074,16 +6074,16 @@
         <v>6.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG46" t="n">
         <v>9</v>
       </c>
       <c r="AH46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI46" t="n">
         <v>17</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>19</v>
       </c>
       <c r="AJ46" t="n">
         <v>34</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H47" t="n">
         <v>4.05</v>
@@ -6136,43 +6136,43 @@
         <v>8.25</v>
       </c>
       <c r="L47" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M47" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="N47" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O47" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="P47" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="R47" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S47" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U47" t="n">
         <v>35</v>
       </c>
       <c r="V47" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="W47" t="n">
         <v>110</v>
       </c>
       <c r="X47" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y47" t="n">
         <v>50</v>
@@ -6184,31 +6184,31 @@
         <v>7.9</v>
       </c>
       <c r="AB47" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD47" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE47" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF47" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>7.6</v>
       </c>
       <c r="AG47" t="n">
         <v>8</v>
       </c>
       <c r="AH47" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI47" t="n">
         <v>11.75</v>
       </c>
       <c r="AJ47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -775,7 +775,7 @@
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>1.11</v>
@@ -924,16 +924,16 @@
         <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T4" t="n">
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>1.07</v>
@@ -1034,10 +1034,10 @@
         <v>3.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1046,31 +1046,31 @@
         <v>2.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
       </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1082,10 +1082,10 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -1138,43 +1138,43 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="N6" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
@@ -1186,37 +1186,37 @@
         <v>17</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="n">
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
@@ -1257,46 +1257,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T7" t="n">
         <v>7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T7" t="n">
-        <v>7.5</v>
       </c>
       <c r="U7" t="n">
         <v>12</v>
@@ -1314,7 +1314,7 @@
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1323,13 +1323,13 @@
         <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1341,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1394,10 +1394,10 @@
         <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
         <v>1.57</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
         <v>1.08</v>
@@ -1534,19 +1534,19 @@
         <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
         <v>6.5</v>
       </c>
       <c r="U9" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" t="n">
         <v>9.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>10</v>
       </c>
       <c r="W9" t="n">
         <v>21</v>
@@ -1555,10 +1555,10 @@
         <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
@@ -1570,10 +1570,10 @@
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.57</v>
@@ -1766,10 +1766,10 @@
         <v>2.25</v>
       </c>
       <c r="N11" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
         <v>1.62</v>
@@ -1778,16 +1778,16 @@
         <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
         <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V11" t="n">
         <v>10</v>
@@ -1802,7 +1802,7 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
@@ -1870,10 +1870,10 @@
         <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
         <v>1.07</v>
@@ -1882,55 +1882,55 @@
         <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W12" t="n">
         <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>67</v>
@@ -1992,19 +1992,19 @@
         <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="M13" t="n">
         <v>2.25</v>
@@ -2034,7 +2034,7 @@
         <v>9.5</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
         <v>21</v>
@@ -2067,13 +2067,13 @@
         <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
@@ -2111,43 +2111,43 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O14" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
         <v>26</v>
@@ -2156,13 +2156,13 @@
         <v>41</v>
       </c>
       <c r="V14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="X14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="n">
         <v>41</v>
@@ -2171,10 +2171,10 @@
         <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>41</v>
@@ -2186,13 +2186,13 @@
         <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG14" t="n">
         <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>10</v>
@@ -2248,16 +2248,16 @@
         <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -2266,10 +2266,10 @@
         <v>2.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -2290,7 +2290,7 @@
         <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
@@ -2311,7 +2311,7 @@
         <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>41</v>
@@ -2355,94 +2355,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L16" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O16" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
         <v>11</v>
       </c>
       <c r="U16" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
       </c>
       <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="n">
         <v>23</v>
       </c>
-      <c r="AA16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -2480,7 +2480,7 @@
         <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
         <v>8.5</v>
@@ -2489,43 +2489,43 @@
         <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L17" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="O17" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
         <v>10</v>
@@ -2534,10 +2534,10 @@
         <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB17" t="n">
         <v>17</v>
@@ -2549,7 +2549,7 @@
         <v>151</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
@@ -2558,7 +2558,7 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I18" t="n">
         <v>15</v>
@@ -2620,10 +2620,10 @@
         <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P18" t="n">
         <v>1.18</v>
@@ -2647,13 +2647,13 @@
         <v>11</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
         <v>26</v>
@@ -2668,7 +2668,7 @@
         <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE18" t="n">
         <v>41</v>
@@ -2721,70 +2721,70 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.5</v>
       </c>
-      <c r="M19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
         <v>101</v>
@@ -2793,13 +2793,13 @@
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
         <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>51</v>
@@ -2808,7 +2808,7 @@
         <v>51</v>
       </c>
       <c r="AJ19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -2968,16 +2968,16 @@
         <v>1.2</v>
       </c>
       <c r="H21" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
+        <v>17</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K21" t="n">
         <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>1.2</v>
@@ -2986,10 +2986,10 @@
         <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -3019,16 +3019,16 @@
         <v>12</v>
       </c>
       <c r="Y21" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
         <v>34</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
       </c>
       <c r="AC21" t="n">
         <v>101</v>
@@ -3040,16 +3040,16 @@
         <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>41</v>
       </c>
       <c r="AH21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AI21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ21" t="n">
         <v>101</v>
@@ -3099,13 +3099,13 @@
         <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N22" t="n">
         <v>2.35</v>
@@ -3114,10 +3114,10 @@
         <v>1.57</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R22" t="n">
         <v>2.1</v>
@@ -3159,10 +3159,10 @@
         <v>1250</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3217,8 +3217,12 @@
       <c r="I23" t="n">
         <v>4.4</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6</v>
+      </c>
       <c r="L23" t="n">
         <v>1.4</v>
       </c>
@@ -3449,19 +3453,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3470,10 +3474,10 @@
         <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3488,22 +3492,22 @@
         <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W25" t="n">
+        <v>34</v>
+      </c>
+      <c r="X25" t="n">
         <v>29</v>
       </c>
-      <c r="X25" t="n">
-        <v>23</v>
-      </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="n">
         <v>9</v>
@@ -3521,19 +3525,19 @@
         <v>351</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
@@ -3571,7 +3575,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
@@ -3580,10 +3584,10 @@
         <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
         <v>1.22</v>
@@ -3592,10 +3596,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3604,10 +3608,10 @@
         <v>3.25</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
@@ -3616,7 +3620,7 @@
         <v>6.5</v>
       </c>
       <c r="V26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W26" t="n">
         <v>8.5</v>
@@ -3640,7 +3644,7 @@
         <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -3702,10 +3706,10 @@
         <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
         <v>1.25</v>
@@ -3714,10 +3718,10 @@
         <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O27" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P27" t="n">
         <v>1.4</v>
@@ -3824,22 +3828,22 @@
         <v>2.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P28" t="n">
         <v>1.5</v>
@@ -4190,10 +4194,10 @@
         <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
         <v>1.29</v>
@@ -4214,22 +4218,22 @@
         <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
         <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V31" t="n">
         <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
         <v>17</v>
@@ -4238,7 +4242,7 @@
         <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4250,13 +4254,13 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -4547,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4580,46 +4584,46 @@
         <v>3.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
+        <v>11</v>
+      </c>
+      <c r="X34" t="n">
         <v>12</v>
-      </c>
-      <c r="X34" t="n">
-        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
         <v>29</v>
@@ -4669,13 +4673,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I35" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.8</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4690,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P35" t="n">
         <v>1.5</v>
@@ -4702,31 +4706,31 @@
         <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S35" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T35" t="n">
         <v>7.5</v>
       </c>
       <c r="U35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y35" t="n">
         <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA35" t="n">
         <v>6</v>
@@ -4738,25 +4742,25 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
@@ -4803,7 +4807,7 @@
         <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.3</v>
@@ -4916,10 +4920,10 @@
         <v>2.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
         <v>1.07</v>
@@ -4934,22 +4938,22 @@
         <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S37" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -4967,7 +4971,7 @@
         <v>19</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="n">
         <v>8.5</v>
@@ -4982,7 +4986,7 @@
         <v>51</v>
       </c>
       <c r="AD37" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE37" t="n">
         <v>9</v>
@@ -5035,10 +5039,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="H38" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="I38" t="n">
         <v>1.17</v>
@@ -5048,18 +5052,18 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="O38" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="S38" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="T38" t="n">
         <v>32</v>
@@ -5074,22 +5078,22 @@
         <v>250</v>
       </c>
       <c r="X38" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
         <v>12.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD38" t="n">
         <v>350</v>
@@ -5389,13 +5393,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5416,19 +5420,19 @@
         <v>1.98</v>
       </c>
       <c r="P41" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
         <v>13</v>
@@ -5437,10 +5441,10 @@
         <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y41" t="n">
         <v>26</v>
@@ -5461,16 +5465,16 @@
         <v>151</v>
       </c>
       <c r="AE41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF41" t="n">
         <v>15</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
         <v>21</v>
@@ -5511,19 +5515,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -5550,19 +5554,19 @@
         <v>1.95</v>
       </c>
       <c r="T42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U42" t="n">
         <v>15</v>
       </c>
       <c r="V42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y42" t="n">
         <v>34</v>
@@ -5583,19 +5587,19 @@
         <v>251</v>
       </c>
       <c r="AE42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="n">
         <v>29</v>
@@ -5639,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
@@ -5654,10 +5658,10 @@
         <v>6</v>
       </c>
       <c r="N43" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O43" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P43" t="n">
         <v>1.25</v>
@@ -5687,7 +5691,7 @@
         <v>34</v>
       </c>
       <c r="Y43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="n">
         <v>19</v>
@@ -5708,13 +5712,13 @@
         <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG43" t="n">
         <v>8.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI43" t="n">
         <v>12</v>
@@ -5764,19 +5768,19 @@
         <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K44" t="n">
         <v>7</v>
       </c>
       <c r="L44" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="N44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.5</v>
@@ -5791,7 +5795,7 @@
         <v>2.2</v>
       </c>
       <c r="S44" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T44" t="n">
         <v>6</v>
@@ -5880,40 +5884,40 @@
         <v>2.1</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J45" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K45" t="n">
         <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M45" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N45" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O45" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="P45" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="T45" t="n">
         <v>6</v>
@@ -5934,10 +5938,10 @@
         <v>41</v>
       </c>
       <c r="Z45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA45" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>6</v>
       </c>
       <c r="AB45" t="n">
         <v>19</v>
@@ -5955,16 +5959,16 @@
         <v>17</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
         <v>41</v>
       </c>
       <c r="AI45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -6002,28 +6006,28 @@
         <v>4.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N46" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6035,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T46" t="n">
         <v>10</v>
@@ -6050,7 +6054,7 @@
         <v>41</v>
       </c>
       <c r="X46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="n">
         <v>41</v>
@@ -6065,13 +6069,13 @@
         <v>17</v>
       </c>
       <c r="AC46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD46" t="n">
         <v>351</v>
       </c>
       <c r="AE46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF46" t="n">
         <v>8.5</v>
@@ -6121,82 +6125,82 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="I47" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J47" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="L47" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="N47" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O47" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="P47" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="R47" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S47" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T47" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V47" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W47" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X47" t="n">
         <v>55</v>
       </c>
       <c r="Y47" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AB47" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE47" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AG47" t="n">
         <v>8</v>
@@ -6205,10 +6209,10 @@
         <v>11</v>
       </c>
       <c r="AI47" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AJ47" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -674,13 +674,13 @@
         <v>2.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>2.05</v>
@@ -701,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
@@ -772,40 +772,40 @@
         <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
         <v>5.5</v>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X3" t="n">
         <v>17</v>
@@ -841,7 +841,7 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -1418,13 +1418,13 @@
         <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U8" t="n">
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
@@ -1451,19 +1451,19 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AI8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="n">
         <v>81</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1543,22 +1543,22 @@
         <v>6.5</v>
       </c>
       <c r="U9" t="n">
+        <v>11</v>
+      </c>
+      <c r="V9" t="n">
         <v>10</v>
       </c>
-      <c r="V9" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
@@ -1570,16 +1570,16 @@
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
         <v>1.14</v>
@@ -1778,16 +1778,16 @@
         <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
         <v>10</v>
@@ -1870,16 +1870,16 @@
         <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
         <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -1921,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
         <v>9</v>
@@ -1936,16 +1936,16 @@
         <v>67</v>
       </c>
       <c r="AD12" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
@@ -1954,7 +1954,7 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -1989,22 +1989,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
         <v>2.25</v>
@@ -2016,10 +2016,10 @@
         <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
         <v>2.25</v>
@@ -2028,19 +2028,19 @@
         <v>1.57</v>
       </c>
       <c r="T13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V13" t="n">
         <v>11</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
         <v>41</v>
@@ -2061,19 +2061,19 @@
         <v>1250</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
@@ -2602,10 +2602,10 @@
         <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
         <v>1.01</v>
@@ -2620,10 +2620,10 @@
         <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P18" t="n">
         <v>1.18</v>
@@ -2632,25 +2632,25 @@
         <v>4.5</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
         <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
         <v>26</v>
@@ -2662,7 +2662,7 @@
         <v>17</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
         <v>67</v>
@@ -2730,10 +2730,10 @@
         <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
         <v>1.57</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2980,40 +2980,40 @@
         <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O21" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U21" t="n">
         <v>5.5</v>
       </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
@@ -3022,37 +3022,37 @@
         <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD21" t="n">
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
         <v>41</v>
       </c>
       <c r="AH21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AI21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>126</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -3099,7 +3099,7 @@
         <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
         <v>1.44</v>
@@ -3453,82 +3453,82 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="O25" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U25" t="n">
         <v>15</v>
       </c>
       <c r="V25" t="n">
+        <v>11</v>
+      </c>
+      <c r="W25" t="n">
+        <v>29</v>
+      </c>
+      <c r="X25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z25" t="n">
         <v>12</v>
       </c>
-      <c r="W25" t="n">
-        <v>34</v>
-      </c>
-      <c r="X25" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="AA25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC25" t="n">
         <v>41</v>
       </c>
-      <c r="Z25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>51</v>
-      </c>
       <c r="AD25" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>9.5</v>
@@ -3540,7 +3540,7 @@
         <v>19</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>1.05</v>
@@ -3724,10 +3724,10 @@
         <v>1.93</v>
       </c>
       <c r="P27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
         <v>1.67</v>
@@ -3736,10 +3736,10 @@
         <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V27" t="n">
         <v>9</v>
@@ -3754,19 +3754,19 @@
         <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
       </c>
       <c r="AD27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE27" t="n">
         <v>12</v>
@@ -3775,13 +3775,13 @@
         <v>19</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>34</v>
@@ -3819,13 +3819,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
         <v>1.08</v>
@@ -3852,22 +3852,22 @@
         <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V28" t="n">
         <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X28" t="n">
         <v>23</v>
@@ -3888,7 +3888,7 @@
         <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE28" t="n">
         <v>7.5</v>
@@ -3897,7 +3897,7 @@
         <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>26</v>
@@ -3941,19 +3941,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.33</v>
@@ -3962,10 +3962,10 @@
         <v>3.25</v>
       </c>
       <c r="N29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P29" t="n">
         <v>1.44</v>
@@ -3974,19 +3974,19 @@
         <v>2.63</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W29" t="n">
         <v>41</v>
@@ -3998,31 +3998,31 @@
         <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA29" t="n">
         <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG29" t="n">
         <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
         <v>17</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4084,10 +4084,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4096,22 +4096,22 @@
         <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
         <v>7.5</v>
       </c>
       <c r="U30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X30" t="n">
         <v>15</v>
@@ -4120,16 +4120,16 @@
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD30" t="n">
         <v>201</v>
@@ -4138,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -4147,10 +4147,10 @@
         <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -4185,31 +4185,31 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O31" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4218,28 +4218,28 @@
         <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W31" t="n">
+        <v>21</v>
+      </c>
+      <c r="X31" t="n">
         <v>19</v>
       </c>
-      <c r="X31" t="n">
-        <v>17</v>
-      </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
         <v>10</v>
@@ -4254,22 +4254,22 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE31" t="n">
         <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4328,10 +4328,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J33" t="n">
         <v>1.06</v>
@@ -4450,10 +4450,10 @@
         <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P33" t="n">
         <v>1.4</v>
@@ -4462,25 +4462,25 @@
         <v>2.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W33" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
         <v>29</v>
@@ -4492,7 +4492,7 @@
         <v>6</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
         <v>41</v>
@@ -4501,22 +4501,22 @@
         <v>201</v>
       </c>
       <c r="AE33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H34" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4572,10 +4572,10 @@
         <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O34" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4593,16 +4593,16 @@
         <v>7.5</v>
       </c>
       <c r="U34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>23</v>
@@ -4611,22 +4611,22 @@
         <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG34" t="n">
         <v>17</v>
@@ -5039,13 +5039,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="H38" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -5060,28 +5060,28 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S38" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T38" t="n">
         <v>32</v>
       </c>
       <c r="U38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W38" t="n">
         <v>250</v>
       </c>
       <c r="X38" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z38" t="n">
         <v>23</v>
@@ -5090,31 +5090,31 @@
         <v>12.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD38" t="n">
         <v>350</v>
       </c>
       <c r="AE38" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH38" t="n">
         <v>6.7</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>6.6</v>
       </c>
       <c r="AI38" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="39">
@@ -5414,10 +5414,10 @@
         <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O41" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5432,7 +5432,7 @@
         <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U41" t="n">
         <v>13</v>
@@ -5447,10 +5447,10 @@
         <v>21</v>
       </c>
       <c r="Y41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA41" t="n">
         <v>6</v>
@@ -5465,10 +5465,10 @@
         <v>151</v>
       </c>
       <c r="AE41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG41" t="n">
         <v>10</v>
@@ -5640,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
         <v>1.65</v>
@@ -5691,13 +5691,13 @@
         <v>34</v>
       </c>
       <c r="Y43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB43" t="n">
         <v>12</v>
@@ -5709,22 +5709,22 @@
         <v>101</v>
       </c>
       <c r="AE43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF43" t="n">
         <v>11</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>10</v>
       </c>
       <c r="AG43" t="n">
         <v>8.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI43" t="n">
         <v>12</v>
       </c>
       <c r="AJ43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -5881,10 +5881,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H45" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I45" t="n">
         <v>3.6</v>
@@ -5896,37 +5896,37 @@
         <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M45" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="P45" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T45" t="n">
         <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W45" t="n">
         <v>19</v>
@@ -5938,22 +5938,22 @@
         <v>41</v>
       </c>
       <c r="Z45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB45" t="n">
         <v>19</v>
       </c>
       <c r="AC45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="n">
         <v>101</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF45" t="n">
         <v>17</v>
@@ -5968,7 +5968,7 @@
         <v>34</v>
       </c>
       <c r="AJ45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -6003,37 +6003,37 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R46" t="n">
         <v>2</v>
@@ -6042,7 +6042,7 @@
         <v>1.73</v>
       </c>
       <c r="T46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U46" t="n">
         <v>21</v>
@@ -6051,7 +6051,7 @@
         <v>15</v>
       </c>
       <c r="W46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X46" t="n">
         <v>41</v>
@@ -6078,7 +6078,7 @@
         <v>6</v>
       </c>
       <c r="AF46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG46" t="n">
         <v>9</v>
@@ -6125,13 +6125,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="H47" t="n">
         <v>3.9</v>
       </c>
       <c r="I47" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J47" t="n">
         <v>1.05</v>
@@ -6140,7 +6140,7 @@
         <v>7.7</v>
       </c>
       <c r="L47" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M47" t="n">
         <v>3.45</v>
@@ -6152,10 +6152,10 @@
         <v>1.91</v>
       </c>
       <c r="P47" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="R47" t="n">
         <v>1.87</v>
@@ -6164,19 +6164,19 @@
         <v>1.83</v>
       </c>
       <c r="T47" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="U47" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W47" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="X47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y47" t="n">
         <v>55</v>
@@ -6197,16 +6197,16 @@
         <v>600</v>
       </c>
       <c r="AE47" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF47" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG47" t="n">
         <v>8</v>
       </c>
       <c r="AH47" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI47" t="n">
         <v>12.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -668,25 +668,25 @@
         <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P2" t="n">
         <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
         <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
         <v>9.5</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>8</v>
@@ -713,13 +713,13 @@
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
         <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>29</v>
@@ -772,10 +772,10 @@
         <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>1.1</v>
@@ -790,43 +790,43 @@
         <v>2.63</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W3" t="n">
         <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
@@ -847,7 +847,7 @@
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
@@ -924,10 +924,10 @@
         <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
         <v>6.5</v>
@@ -960,7 +960,7 @@
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1016,10 +1016,10 @@
         <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
         <v>1.07</v>
@@ -1028,16 +1028,16 @@
         <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
@@ -1085,13 +1085,13 @@
         <v>301</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1174,7 +1174,7 @@
         <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
@@ -1210,13 +1210,13 @@
         <v>8.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
@@ -1260,40 +1260,40 @@
         <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -1305,16 +1305,16 @@
         <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1323,16 +1323,16 @@
         <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1341,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1394,10 +1394,10 @@
         <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N8" t="n">
         <v>1.57</v>
@@ -1418,13 +1418,13 @@
         <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
@@ -1451,19 +1451,19 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ8" t="n">
         <v>81</v>
@@ -1510,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1540,7 +1540,7 @@
         <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
         <v>11</v>
@@ -1552,25 +1552,25 @@
         <v>23</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
         <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE9" t="n">
         <v>7.5</v>
@@ -1585,7 +1585,7 @@
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.5</v>
@@ -1656,13 +1656,13 @@
         <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
         <v>10</v>
@@ -1680,7 +1680,7 @@
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
@@ -1698,7 +1698,7 @@
         <v>7.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1754,10 +1754,10 @@
         <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>1.57</v>
@@ -1998,22 +1998,22 @@
         <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N13" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
         <v>1.67</v>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
         <v>4.75</v>
@@ -2736,31 +2736,31 @@
         <v>6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N19" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.44</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U19" t="n">
         <v>7</v>
@@ -2769,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="W19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
@@ -2778,7 +2778,7 @@
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2787,16 +2787,16 @@
         <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD19" t="n">
         <v>101</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -2864,10 +2864,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2891,13 +2891,13 @@
         <v>9</v>
       </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
         <v>7</v>
@@ -2918,10 +2918,10 @@
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>67</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H21" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2992,16 +2992,16 @@
         <v>2.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -3013,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
@@ -3022,37 +3022,37 @@
         <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD21" t="n">
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
         <v>41</v>
       </c>
       <c r="AH21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AI21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -3209,94 +3209,94 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>2.95</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.11</v>
       </c>
       <c r="K23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V23" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W23" t="n">
+        <v>16</v>
+      </c>
+      <c r="X23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA23" t="n">
         <v>6</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T23" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="U23" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="V23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>17</v>
-      </c>
-      <c r="X23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AD23" t="n">
         <v>900</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AF23" t="n">
         <v>24</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -3334,16 +3334,16 @@
         <v>2.05</v>
       </c>
       <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.3</v>
       </c>
-      <c r="I24" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.3</v>
@@ -3352,16 +3352,16 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R24" t="n">
         <v>1.8</v>
@@ -3388,7 +3388,7 @@
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3415,7 +3415,7 @@
         <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
         <v>34</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J25" t="n">
         <v>1.05</v>
@@ -3468,79 +3468,79 @@
         <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="O25" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U25" t="n">
         <v>15</v>
       </c>
       <c r="V25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE25" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -3587,37 +3587,37 @@
         <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V26" t="n">
         <v>9</v>
@@ -3632,7 +3632,7 @@
         <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
         <v>10</v>
@@ -3641,13 +3641,13 @@
         <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="n">
         <v>700</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -3718,10 +3718,10 @@
         <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P27" t="n">
         <v>1.36</v>
@@ -3819,13 +3819,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
         <v>1.08</v>
@@ -3840,10 +3840,10 @@
         <v>2.75</v>
       </c>
       <c r="N28" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O28" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P28" t="n">
         <v>1.5</v>
@@ -3852,7 +3852,7 @@
         <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="n">
         <v>1.8</v>
@@ -3864,7 +3864,7 @@
         <v>12</v>
       </c>
       <c r="V28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W28" t="n">
         <v>26</v>
@@ -3888,19 +3888,19 @@
         <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
         <v>23</v>
@@ -3941,25 +3941,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
         <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J29" t="n">
         <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
         <v>2.1</v>
@@ -3974,19 +3974,19 @@
         <v>2.63</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
         <v>41</v>
@@ -4022,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>17</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4084,10 +4084,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O30" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
         <v>1.4</v>
@@ -4096,10 +4096,10 @@
         <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T30" t="n">
         <v>7.5</v>
@@ -4108,10 +4108,10 @@
         <v>9</v>
       </c>
       <c r="V30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
         <v>15</v>
@@ -4120,7 +4120,7 @@
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
@@ -4132,7 +4132,7 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4200,16 +4200,16 @@
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O31" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4218,7 +4218,7 @@
         <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S31" t="n">
         <v>2</v>
@@ -4227,19 +4227,19 @@
         <v>8</v>
       </c>
       <c r="U31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
         <v>10</v>
@@ -4260,10 +4260,10 @@
         <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4322,10 +4322,10 @@
         <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N32" t="n">
         <v>1.7</v>
@@ -4340,7 +4340,7 @@
         <v>3.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S32" t="n">
         <v>2.1</v>
@@ -4349,7 +4349,7 @@
         <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
@@ -4367,10 +4367,10 @@
         <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>41</v>
@@ -4388,10 +4388,10 @@
         <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
@@ -4429,46 +4429,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
         <v>3.1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K33" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O33" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S33" t="n">
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U33" t="n">
         <v>11</v>
@@ -4486,10 +4486,10 @@
         <v>29</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
@@ -4501,7 +4501,7 @@
         <v>201</v>
       </c>
       <c r="AE33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF33" t="n">
         <v>17</v>
@@ -4578,10 +4578,10 @@
         <v>2.05</v>
       </c>
       <c r="P34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>1.8</v>
@@ -4614,13 +4614,13 @@
         <v>7.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
@@ -5393,13 +5393,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5414,10 +5414,10 @@
         <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O41" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5432,16 +5432,16 @@
         <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V41" t="n">
         <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X41" t="n">
         <v>21</v>
@@ -5515,13 +5515,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
@@ -5557,7 +5557,7 @@
         <v>9.5</v>
       </c>
       <c r="U42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V42" t="n">
         <v>12</v>
@@ -5572,7 +5572,7 @@
         <v>34</v>
       </c>
       <c r="Z42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
@@ -5640,10 +5640,10 @@
         <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
@@ -5664,16 +5664,16 @@
         <v>2.7</v>
       </c>
       <c r="P43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T43" t="n">
         <v>21</v>
@@ -5682,7 +5682,7 @@
         <v>29</v>
       </c>
       <c r="V43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W43" t="n">
         <v>51</v>
@@ -5706,7 +5706,7 @@
         <v>34</v>
       </c>
       <c r="AD43" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="n">
         <v>12</v>
@@ -5759,13 +5759,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J44" t="n">
         <v>1.1</v>
@@ -5798,7 +5798,7 @@
         <v>1.62</v>
       </c>
       <c r="T44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U44" t="n">
         <v>8.5</v>
@@ -5807,7 +5807,7 @@
         <v>9.5</v>
       </c>
       <c r="W44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
@@ -5822,10 +5822,10 @@
         <v>6.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="n">
         <v>101</v>
@@ -5846,7 +5846,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -5881,13 +5881,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J45" t="n">
         <v>1.1</v>
@@ -5902,10 +5902,10 @@
         <v>2.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P45" t="n">
         <v>1.57</v>
@@ -5923,10 +5923,10 @@
         <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W45" t="n">
         <v>19</v>
@@ -5947,25 +5947,25 @@
         <v>19</v>
       </c>
       <c r="AC45" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD45" t="n">
         <v>101</v>
       </c>
       <c r="AE45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF45" t="n">
         <v>17</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
         <v>41</v>
       </c>
       <c r="AI45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="n">
         <v>51</v>
@@ -6003,52 +6003,52 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
         <v>1.8</v>
       </c>
       <c r="J46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N46" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S46" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T46" t="n">
         <v>11</v>
       </c>
       <c r="U46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W46" t="n">
         <v>51</v>
@@ -6057,16 +6057,16 @@
         <v>41</v>
       </c>
       <c r="Y46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA46" t="n">
         <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="n">
         <v>67</v>
@@ -6075,16 +6075,16 @@
         <v>351</v>
       </c>
       <c r="AE46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG46" t="n">
         <v>9</v>
       </c>
       <c r="AH46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI46" t="n">
         <v>17</v>
@@ -6125,94 +6125,94 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="I47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J47" t="n">
         <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M47" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="N47" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O47" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="P47" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="R47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S47" t="n">
         <v>1.87</v>
       </c>
-      <c r="S47" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T47" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="U47" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="V47" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="W47" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="X47" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Y47" t="n">
         <v>55</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB47" t="n">
         <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD47" t="n">
         <v>600</v>
       </c>
       <c r="AE47" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AF47" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG47" t="n">
         <v>8</v>
       </c>
       <c r="AH47" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ47" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -662,10 +662,10 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N2" t="n">
         <v>1.67</v>
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -802,22 +802,22 @@
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V3" t="n">
         <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
         <v>19</v>
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD3" t="n">
         <v>501</v>
@@ -844,16 +844,16 @@
         <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -1019,7 +1019,7 @@
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.07</v>
@@ -1028,10 +1028,10 @@
         <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N5" t="n">
         <v>2.08</v>
@@ -1070,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1097,7 +1097,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1168,22 +1168,22 @@
         <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
@@ -1400,10 +1400,10 @@
         <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P8" t="n">
         <v>1.29</v>
@@ -1510,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1540,7 +1540,7 @@
         <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
         <v>11</v>
@@ -1552,7 +1552,7 @@
         <v>23</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>34</v>
@@ -1570,7 +1570,7 @@
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE9" t="n">
         <v>7.5</v>
@@ -1585,7 +1585,7 @@
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
         <v>1.13</v>
@@ -1772,10 +1772,10 @@
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
         <v>2.38</v>
@@ -1784,19 +1784,19 @@
         <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V11" t="n">
         <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>41</v>
@@ -1820,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -1939,7 +1939,7 @@
         <v>351</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>23</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J13" t="n">
         <v>1.14</v>
@@ -2022,16 +2022,16 @@
         <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V13" t="n">
         <v>11</v>
@@ -2046,10 +2046,10 @@
         <v>41</v>
       </c>
       <c r="Z13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA13" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>6</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
@@ -2064,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2843,46 +2843,46 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
         <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>6.5</v>
@@ -2891,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
@@ -2900,13 +2900,13 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA20" t="n">
         <v>7</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
         <v>81</v>
@@ -2915,7 +2915,7 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>29</v>
@@ -2930,7 +2930,7 @@
         <v>51</v>
       </c>
       <c r="AJ20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -3010,7 +3010,7 @@
         <v>5.5</v>
       </c>
       <c r="V21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
         <v>6.5</v>
@@ -3019,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
         <v>12</v>
@@ -3028,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
         <v>101</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3352,10 +3352,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O24" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -5414,10 +5414,10 @@
         <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O41" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5441,7 +5441,7 @@
         <v>10</v>
       </c>
       <c r="W41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X41" t="n">
         <v>21</v>
@@ -5450,7 +5450,7 @@
         <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
         <v>6</v>
@@ -5515,13 +5515,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
@@ -5530,10 +5530,10 @@
         <v>10</v>
       </c>
       <c r="L42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N42" t="n">
         <v>2.05</v>
@@ -5554,7 +5554,7 @@
         <v>1.95</v>
       </c>
       <c r="T42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U42" t="n">
         <v>17</v>
@@ -5566,13 +5566,13 @@
         <v>34</v>
       </c>
       <c r="X42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y42" t="n">
         <v>34</v>
       </c>
       <c r="Z42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
@@ -5590,10 +5590,10 @@
         <v>7.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH42" t="n">
         <v>21</v>
@@ -5664,16 +5664,16 @@
         <v>2.7</v>
       </c>
       <c r="P43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T43" t="n">
         <v>21</v>
@@ -5706,7 +5706,7 @@
         <v>34</v>
       </c>
       <c r="AD43" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE43" t="n">
         <v>12</v>
@@ -5881,19 +5881,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="J45" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.5</v>
@@ -5902,10 +5902,10 @@
         <v>2.5</v>
       </c>
       <c r="N45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P45" t="n">
         <v>1.57</v>
@@ -5920,19 +5920,19 @@
         <v>1.62</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U45" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="V45" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W45" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="X45" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y45" t="n">
         <v>41</v>
@@ -5953,22 +5953,22 @@
         <v>101</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AF45" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>41</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="46">

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -769,64 +769,64 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="M3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.5</v>
       </c>
-      <c r="N3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.38</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
         <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
@@ -841,13 +841,13 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -891,37 +891,37 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
         <v>2</v>
@@ -930,52 +930,52 @@
         <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
         <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1034,10 +1034,10 @@
         <v>3.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1052,25 +1052,25 @@
         <v>1.91</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U5" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1085,22 +1085,22 @@
         <v>301</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1150,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N6" t="n">
         <v>2.7</v>
@@ -1177,13 +1177,13 @@
         <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
         <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>81</v>
@@ -1207,19 +1207,19 @@
         <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1260,40 +1260,40 @@
         <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
@@ -1305,16 +1305,16 @@
         <v>11</v>
       </c>
       <c r="W7" t="n">
+        <v>29</v>
+      </c>
+      <c r="X7" t="n">
         <v>26</v>
-      </c>
-      <c r="X7" t="n">
-        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1323,16 +1323,16 @@
         <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1341,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I8" t="n">
         <v>15</v>
@@ -1400,43 +1400,43 @@
         <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
         <v>7</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1445,19 +1445,19 @@
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD8" t="n">
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH8" t="n">
         <v>201</v>
@@ -1644,10 +1644,10 @@
         <v>2.63</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
         <v>1.57</v>
@@ -1656,13 +1656,13 @@
         <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
         <v>10</v>
@@ -1748,40 +1748,40 @@
         <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="N11" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
         <v>5.5</v>
@@ -1793,16 +1793,16 @@
         <v>10</v>
       </c>
       <c r="W11" t="n">
+        <v>19</v>
+      </c>
+      <c r="X11" t="n">
         <v>21</v>
-      </c>
-      <c r="X11" t="n">
-        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
@@ -1876,13 +1876,13 @@
         <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>7.5</v>
       </c>
       <c r="V12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W12" t="n">
         <v>13</v>
@@ -1921,10 +1921,10 @@
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>1.62</v>
@@ -2028,22 +2028,22 @@
         <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X13" t="n">
         <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z13" t="n">
         <v>5</v>
@@ -2061,10 +2061,10 @@
         <v>1250</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2852,10 +2852,10 @@
         <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -2888,7 +2888,7 @@
         <v>6.5</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
         <v>12</v>
@@ -2909,7 +2909,7 @@
         <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
@@ -2965,37 +2965,37 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="n">
         <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="O21" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="P21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R21" t="n">
         <v>2.5</v>
@@ -3004,7 +3004,7 @@
         <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U21" t="n">
         <v>5.5</v>
@@ -3013,19 +3013,19 @@
         <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
@@ -3037,22 +3037,22 @@
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
         <v>1.08</v>
@@ -3129,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V22" t="n">
         <v>9.5</v>
@@ -3159,19 +3159,19 @@
         <v>1250</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="n">
         <v>41</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H23" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
         <v>1.11</v>
@@ -3239,40 +3239,40 @@
         <v>1.57</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
         <v>1.6</v>
       </c>
       <c r="T23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U23" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="V23" t="n">
         <v>8.75</v>
       </c>
       <c r="W23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
         <v>40</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC23" t="n">
         <v>120</v>
@@ -3281,19 +3281,19 @@
         <v>900</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
         <v>70</v>
@@ -3337,7 +3337,7 @@
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
@@ -3352,10 +3352,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3382,7 +3382,7 @@
         <v>19</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
         <v>29</v>
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
@@ -3492,10 +3492,10 @@
         <v>1.83</v>
       </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V25" t="n">
         <v>12</v>
@@ -3504,7 +3504,7 @@
         <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
@@ -3513,10 +3513,10 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
@@ -5393,13 +5393,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H41" t="n">
         <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5438,10 +5438,10 @@
         <v>15</v>
       </c>
       <c r="V41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X41" t="n">
         <v>21</v>
@@ -5477,10 +5477,10 @@
         <v>26</v>
       </c>
       <c r="AI41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -5530,10 +5530,10 @@
         <v>10</v>
       </c>
       <c r="L42" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N42" t="n">
         <v>2.05</v>
@@ -5640,16 +5640,16 @@
         <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
       </c>
       <c r="K43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L43" t="n">
         <v>1.13</v>
@@ -5664,10 +5664,10 @@
         <v>2.7</v>
       </c>
       <c r="P43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
         <v>1.5</v>
@@ -5682,7 +5682,7 @@
         <v>29</v>
       </c>
       <c r="V43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W43" t="n">
         <v>51</v>
@@ -6003,13 +6003,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="J46" t="n">
         <v>1.08</v>
@@ -6024,10 +6024,10 @@
         <v>2.75</v>
       </c>
       <c r="N46" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6036,28 +6036,28 @@
         <v>2.5</v>
       </c>
       <c r="R46" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X46" t="n">
         <v>41</v>
       </c>
       <c r="Y46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="n">
         <v>7.5</v>
@@ -6066,7 +6066,7 @@
         <v>6.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC46" t="n">
         <v>67</v>
@@ -6075,16 +6075,16 @@
         <v>351</v>
       </c>
       <c r="AE46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG46" t="n">
         <v>9</v>
       </c>
       <c r="AH46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI46" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-16.xlsx
@@ -1388,37 +1388,37 @@
         <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U8" t="n">
         <v>5.5</v>
@@ -1436,7 +1436,7 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1516,16 +1516,16 @@
         <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
         <v>1.53</v>
@@ -1534,10 +1534,10 @@
         <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T9" t="n">
         <v>6.5</v>
@@ -1555,10 +1555,10 @@
         <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
@@ -1570,7 +1570,7 @@
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE9" t="n">
         <v>7.5</v>
@@ -1579,7 +1579,7 @@
         <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>1.11</v>
@@ -1638,10 +1638,10 @@
         <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
         <v>2.6</v>
@@ -1665,13 +1665,13 @@
         <v>6</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1695,19 +1695,19 @@
         <v>501</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI10" t="n">
         <v>34</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1995,7 +1995,7 @@
         <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
         <v>1.17</v>
@@ -3087,25 +3087,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="J22" t="n">
         <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N22" t="n">
         <v>2.35</v>
@@ -3114,31 +3114,31 @@
         <v>1.57</v>
       </c>
       <c r="P22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W22" t="n">
+        <v>13</v>
+      </c>
+      <c r="X22" t="n">
         <v>17</v>
-      </c>
-      <c r="X22" t="n">
-        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
@@ -3147,34 +3147,34 @@
         <v>7.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="n">
         <v>1250</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -3453,25 +3453,25 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.3</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
         <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N25" t="n">
         <v>2.03</v>
@@ -3480,16 +3480,16 @@
         <v>1.78</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T25" t="n">
         <v>9.5</v>
@@ -3504,13 +3504,13 @@
         <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6.5</v>
@@ -3522,7 +3522,7 @@
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE25" t="n">
         <v>7.5</v>
@@ -3537,7 +3537,7 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>29</v>
@@ -3575,22 +3575,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K26" t="n">
         <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
         <v>3.75</v>
@@ -3608,22 +3608,22 @@
         <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T26" t="n">
         <v>6.5</v>
       </c>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V26" t="n">
         <v>9</v>
       </c>
       <c r="W26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X26" t="n">
         <v>12</v>
@@ -3635,22 +3635,22 @@
         <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB26" t="n">
         <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
@@ -5393,13 +5393,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5414,25 +5414,25 @@
         <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U41" t="n">
         <v>15</v>
@@ -5444,7 +5444,7 @@
         <v>29</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
         <v>29</v>
@@ -5471,10 +5471,10 @@
         <v>13</v>
       </c>
       <c r="AG41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
         <v>19</v>
@@ -5554,7 +5554,7 @@
         <v>1.95</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U42" t="n">
         <v>17</v>
@@ -5643,25 +5643,25 @@
         <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K43" t="n">
         <v>21</v>
       </c>
       <c r="L43" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="M43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O43" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P43" t="n">
         <v>1.22</v>
@@ -5670,10 +5670,10 @@
         <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T43" t="n">
         <v>21</v>
@@ -5703,10 +5703,10 @@
         <v>12</v>
       </c>
       <c r="AC43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD43" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="n">
         <v>12</v>
@@ -5715,7 +5715,7 @@
         <v>11</v>
       </c>
       <c r="AG43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH43" t="n">
         <v>15</v>
